--- a/Iteraciones/1 Iteracion/Fase de Elaboracion/Identificar Requerimientos/work_items_list_tpl.xlsx
+++ b/Iteraciones/1 Iteracion/Fase de Elaboracion/Identificar Requerimientos/work_items_list_tpl.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorios\GitHub\IdentificarRequerimientos-FE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorios\GitHub\SystranDocs\Iteraciones\1 Iteracion\Fase de Elaboracion\Identificar Requerimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="129">
   <si>
     <t xml:space="preserve">Priority   </t>
   </si>
@@ -254,30 +254,6 @@
     <t>Realizar Pruebas Caso de uso Encomiendas</t>
   </si>
   <si>
-    <t>Crear Build Caso de uso Ventas</t>
-  </si>
-  <si>
-    <t>Crear Build Caso de uso Encomiendas</t>
-  </si>
-  <si>
-    <t>Caso de Uso Ventas</t>
-  </si>
-  <si>
-    <t>Caso de Uso Encomiendas</t>
-  </si>
-  <si>
-    <t>Modelo de Caso de uso ventas</t>
-  </si>
-  <si>
-    <t>Modelo de caso de uso encomiendas</t>
-  </si>
-  <si>
-    <t>Test-Case Ventas</t>
-  </si>
-  <si>
-    <t>Test-Case Encomiendas</t>
-  </si>
-  <si>
     <t>1.2.1.7</t>
   </si>
   <si>
@@ -294,6 +270,148 @@
   </si>
   <si>
     <t>1.2.1.12</t>
+  </si>
+  <si>
+    <t>Desarrollar casos de uso Estaciones</t>
+  </si>
+  <si>
+    <t>Desarrollar casos de uso Horarios</t>
+  </si>
+  <si>
+    <t>Desarrollar casos de uso Carga</t>
+  </si>
+  <si>
+    <t>Programar caso de uso vehiculos</t>
+  </si>
+  <si>
+    <t>Programar casos de uso estaciones</t>
+  </si>
+  <si>
+    <t>Programar casos de uso horarios</t>
+  </si>
+  <si>
+    <t>1.2.1.13</t>
+  </si>
+  <si>
+    <t>1.2.1.14</t>
+  </si>
+  <si>
+    <t>1.2.1.15</t>
+  </si>
+  <si>
+    <t>1.2.1.16</t>
+  </si>
+  <si>
+    <t>1.2.1.17</t>
+  </si>
+  <si>
+    <t>1.2.1.18</t>
+  </si>
+  <si>
+    <t>1.2.1.19</t>
+  </si>
+  <si>
+    <t>1.2.1.20</t>
+  </si>
+  <si>
+    <t>1.2.1.21</t>
+  </si>
+  <si>
+    <t>1.2.1.22</t>
+  </si>
+  <si>
+    <t>Programar casos de uso carga</t>
+  </si>
+  <si>
+    <t>Realizar pruebas caso de uso vehiculos</t>
+  </si>
+  <si>
+    <t>Realizar pruebas caso de uso estaciones</t>
+  </si>
+  <si>
+    <t>1.2.1.23</t>
+  </si>
+  <si>
+    <t>1.2.1.24</t>
+  </si>
+  <si>
+    <t>1.2.1.25</t>
+  </si>
+  <si>
+    <t>1.2.1.26</t>
+  </si>
+  <si>
+    <t>1.2.1.27</t>
+  </si>
+  <si>
+    <t>Realizar pruebas caso de uso clientes</t>
+  </si>
+  <si>
+    <t>Programar casos de uso clientes</t>
+  </si>
+  <si>
+    <t>Realizar pruebas caso de uso horarios</t>
+  </si>
+  <si>
+    <t>Realizar pruebas caso de uso carga</t>
+  </si>
+  <si>
+    <t>Huaripata Chávez, Billy 
+Taica Sanchez, Ruth</t>
+  </si>
+  <si>
+    <t>Desarrollar Casos de uso Clientes</t>
+  </si>
+  <si>
+    <t>Desarrollar Casos de Uso Vehiculos</t>
+  </si>
+  <si>
+    <t>Programar casos de uso empleados</t>
+  </si>
+  <si>
+    <t>Desarrollar casos de uso Empleados</t>
+  </si>
+  <si>
+    <t>Desarrollar Modelo de Casos de Uso</t>
+  </si>
+  <si>
+    <t>Desarrollar Modelo de Casos de Uso Vehículos</t>
+  </si>
+  <si>
+    <t>Desarrollar Modelo de Casos de Uso Clientes</t>
+  </si>
+  <si>
+    <t>Desarrollar Modelo de Casos de Uso Estaciones</t>
+  </si>
+  <si>
+    <t>Desarrollar Modelo de Casos de Uso Horarios</t>
+  </si>
+  <si>
+    <t>Desarrollar Modelo de Casos de Uso Empleados</t>
+  </si>
+  <si>
+    <t>Desarrollar Modelo de Casos de Uso Carga</t>
+  </si>
+  <si>
+    <t>1.2.1.28</t>
+  </si>
+  <si>
+    <t>1.2.1.29</t>
+  </si>
+  <si>
+    <t>1.2.1.30</t>
+  </si>
+  <si>
+    <t>1.2.1.31</t>
+  </si>
+  <si>
+    <t>1.2.1.32</t>
+  </si>
+  <si>
+    <t>1.2.1.33</t>
+  </si>
+  <si>
+    <t>1.2.1.34</t>
   </si>
 </sst>
 </file>
@@ -431,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -462,6 +580,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -471,11 +618,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -819,16 +970,14 @@
       <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="6">
-        <v>5</v>
-      </c>
+      <c r="D2" s="6"/>
       <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="7">
         <v>1</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="23" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="6">
@@ -837,7 +986,7 @@
       <c r="I2" s="7">
         <v>60</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="23" t="s">
         <v>14</v>
       </c>
     </row>
@@ -851,21 +1000,19 @@
       <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="6">
-        <v>5</v>
-      </c>
+      <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="7">
         <v>1</v>
       </c>
-      <c r="G3" s="13"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="6">
         <v>0</v>
       </c>
       <c r="I3" s="9"/>
-      <c r="J3" s="14"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -874,10 +1021,10 @@
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
@@ -891,7 +1038,7 @@
       <c r="I4" s="7">
         <v>14</v>
       </c>
-      <c r="J4" s="14"/>
+      <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -900,7 +1047,9 @@
       <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
       <c r="D5" s="9"/>
       <c r="E5" s="5" t="s">
         <v>12</v>
@@ -913,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="9"/>
-      <c r="J5" s="14"/>
+      <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -922,7 +1071,9 @@
       <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
       <c r="D6" s="9"/>
       <c r="E6" s="5" t="s">
         <v>12</v>
@@ -935,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="9"/>
-      <c r="J6" s="14"/>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -944,7 +1095,9 @@
       <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
       <c r="D7" s="9"/>
       <c r="E7" s="5" t="s">
         <v>12</v>
@@ -957,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="9"/>
-      <c r="J7" s="14"/>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -966,10 +1119,10 @@
       <c r="B8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
@@ -983,7 +1136,7 @@
       <c r="I8" s="7">
         <v>8</v>
       </c>
-      <c r="J8" s="14"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
@@ -992,7 +1145,9 @@
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
       <c r="D9" s="9"/>
       <c r="E9" s="5" t="s">
         <v>12</v>
@@ -1005,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="9"/>
-      <c r="J9" s="14"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
@@ -1014,10 +1169,10 @@
       <c r="B10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="6">
-        <v>1</v>
-      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6"/>
       <c r="E10" s="5" t="s">
         <v>12</v>
       </c>
@@ -1031,7 +1186,7 @@
       <c r="I10" s="7">
         <v>20</v>
       </c>
-      <c r="J10" s="14"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
@@ -1040,7 +1195,9 @@
       <c r="B11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
       <c r="D11" s="9"/>
       <c r="E11" s="5" t="s">
         <v>12</v>
@@ -1053,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="9"/>
-      <c r="J11" s="14"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
@@ -1062,7 +1219,9 @@
       <c r="B12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
       <c r="D12" s="9"/>
       <c r="E12" s="5" t="s">
         <v>12</v>
@@ -1075,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="9"/>
-      <c r="J12" s="14"/>
+      <c r="J12" s="25"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
@@ -1084,10 +1243,10 @@
       <c r="B13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="6">
-        <v>1</v>
-      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6"/>
       <c r="E13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1101,7 +1260,7 @@
       <c r="I13" s="7">
         <v>14</v>
       </c>
-      <c r="J13" s="14"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -1110,7 +1269,9 @@
       <c r="B14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
       <c r="D14" s="9"/>
       <c r="E14" s="5" t="s">
         <v>12</v>
@@ -1123,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="9"/>
-      <c r="J14" s="14"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -1132,7 +1293,9 @@
       <c r="B15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
       <c r="D15" s="9"/>
       <c r="E15" s="5" t="s">
         <v>12</v>
@@ -1145,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="9"/>
-      <c r="J15" s="14"/>
+      <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
@@ -1154,7 +1317,9 @@
       <c r="B16" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
       <c r="D16" s="9"/>
       <c r="E16" s="5" t="s">
         <v>12</v>
@@ -1167,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="9"/>
-      <c r="J16" s="14"/>
+      <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -1176,7 +1341,9 @@
       <c r="B17" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
       <c r="D17" s="9"/>
       <c r="E17" s="5" t="s">
         <v>12</v>
@@ -1189,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="9"/>
-      <c r="J17" s="14"/>
+      <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -1198,7 +1365,9 @@
       <c r="B18" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
       <c r="D18" s="9"/>
       <c r="E18" s="5" t="s">
         <v>12</v>
@@ -1211,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="9"/>
-      <c r="J18" s="14"/>
+      <c r="J18" s="25"/>
     </row>
     <row r="19" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
@@ -1220,7 +1389,9 @@
       <c r="B19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
       <c r="D19" s="9"/>
       <c r="E19" s="5" t="s">
         <v>12</v>
@@ -1233,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="9"/>
-      <c r="J19" s="14"/>
+      <c r="J19" s="25"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
@@ -1242,7 +1413,9 @@
       <c r="B20" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
       <c r="D20" s="9"/>
       <c r="E20" s="5" t="s">
         <v>12</v>
@@ -1255,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="9"/>
-      <c r="J20" s="14"/>
+      <c r="J20" s="25"/>
     </row>
     <row r="21" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
@@ -1264,10 +1437,10 @@
       <c r="B21" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="6">
-        <v>1</v>
-      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6"/>
       <c r="E21" s="5" t="s">
         <v>12</v>
       </c>
@@ -1281,7 +1454,7 @@
       <c r="I21" s="7">
         <v>4</v>
       </c>
-      <c r="J21" s="14"/>
+      <c r="J21" s="25"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
@@ -1290,7 +1463,9 @@
       <c r="B22" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
       <c r="D22" s="9"/>
       <c r="E22" s="5" t="s">
         <v>12</v>
@@ -1303,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="9"/>
-      <c r="J22" s="13"/>
+      <c r="J22" s="24"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
@@ -1325,18 +1500,14 @@
         <v>56</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="6">
-        <v>2</v>
-      </c>
+      <c r="D24" s="6"/>
       <c r="E24" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="7">
         <v>1</v>
       </c>
-      <c r="G24" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="G24" s="21"/>
       <c r="H24" s="7">
         <v>0</v>
       </c>
@@ -1353,16 +1524,14 @@
       <c r="C25" s="6">
         <v>1</v>
       </c>
-      <c r="D25" s="6">
-        <v>1</v>
-      </c>
+      <c r="D25" s="6"/>
       <c r="E25" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="7">
         <v>1</v>
       </c>
-      <c r="G25" s="13"/>
+      <c r="G25" s="22"/>
       <c r="H25" s="7">
         <v>0</v>
       </c>
@@ -1372,10 +1541,10 @@
       <c r="A26" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="7">
+      <c r="B26" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="15">
         <v>1</v>
       </c>
       <c r="D26" s="9"/>
@@ -1385,41 +1554,39 @@
       <c r="F26" s="7">
         <v>1</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="6">
+      <c r="G26" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" s="7">
         <v>0</v>
       </c>
       <c r="I26" s="7">
         <v>1</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1</v>
-      </c>
-      <c r="D27" s="9"/>
+      <c r="B27" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="14">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6"/>
       <c r="E27" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="7">
         <v>1</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="9"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
       <c r="I27" s="7">
         <v>1</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1427,9 +1594,9 @@
         <v>68</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="6">
+        <v>82</v>
+      </c>
+      <c r="C28" s="14">
         <v>1</v>
       </c>
       <c r="D28" s="6"/>
@@ -1439,13 +1606,12 @@
       <c r="F28" s="7">
         <v>1</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6">
-        <v>1</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>80</v>
+      <c r="G28" s="28"/>
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1453,9 +1619,9 @@
         <v>69</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="6">
+        <v>83</v>
+      </c>
+      <c r="C29" s="15">
         <v>1</v>
       </c>
       <c r="D29" s="6"/>
@@ -1465,13 +1631,12 @@
       <c r="F29" s="7">
         <v>1</v>
       </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="6"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
       <c r="I29" s="7">
         <v>1</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1479,10 +1644,10 @@
         <v>70</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="7">
-        <v>2</v>
+        <v>114</v>
+      </c>
+      <c r="C30" s="15">
+        <v>1</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="5" t="s">
@@ -1491,24 +1656,23 @@
       <c r="F30" s="7">
         <v>1</v>
       </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6">
-        <v>1</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>82</v>
+      <c r="G30" s="28"/>
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="7">
-        <v>2</v>
+      <c r="B31" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="15">
+        <v>1</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="5" t="s">
@@ -1517,246 +1681,784 @@
       <c r="F31" s="7">
         <v>1</v>
       </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="6"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
       <c r="I31" s="7">
         <v>1</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="7">
+        <v>116</v>
+      </c>
+      <c r="C32" s="15">
         <v>1</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="5" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F32" s="7">
         <v>1</v>
       </c>
-      <c r="G32" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="G32" s="28"/>
       <c r="H32" s="6">
-        <v>20</v>
-      </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="7">
-        <v>1</v>
-      </c>
-      <c r="D33" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="C33" s="15">
+        <v>1</v>
+      </c>
+      <c r="D33" s="9"/>
       <c r="E33" s="5" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F33" s="7">
         <v>1</v>
       </c>
-      <c r="G33" s="13"/>
+      <c r="G33" s="28"/>
       <c r="H33" s="6">
-        <v>20</v>
-      </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="7">
+        <v>118</v>
+      </c>
+      <c r="C34" s="15">
         <v>1</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="5" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F34" s="7">
         <v>1</v>
       </c>
-      <c r="G34" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="G34" s="28"/>
       <c r="H34" s="6">
-        <v>2</v>
-      </c>
-      <c r="I34" s="9"/>
-      <c r="J34" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="7">
+        <v>119</v>
+      </c>
+      <c r="C35" s="15">
         <v>1</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="5" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F35" s="7">
         <v>1</v>
       </c>
-      <c r="G35" s="13"/>
+      <c r="G35" s="28"/>
       <c r="H35" s="6">
-        <v>2</v>
-      </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="7">
+        <v>120</v>
+      </c>
+      <c r="C36" s="15">
         <v>1</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="5" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F36" s="7">
         <v>1</v>
       </c>
-      <c r="G36" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="G36" s="28"/>
       <c r="H36" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="I36" s="9"/>
-      <c r="J36" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="7">
+        <v>121</v>
+      </c>
+      <c r="C37" s="15">
         <v>1</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="7">
+        <v>1</v>
+      </c>
+      <c r="G37" s="28"/>
+      <c r="H37" s="6">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="15">
+        <v>1</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="7">
+        <v>1</v>
+      </c>
+      <c r="G38" s="28"/>
+      <c r="H38" s="6">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="7">
+        <v>1</v>
+      </c>
+      <c r="G39" s="28"/>
+      <c r="H39" s="6">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="17">
+        <v>1</v>
+      </c>
+      <c r="D40" s="18"/>
+      <c r="E40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="7">
+        <v>1</v>
+      </c>
+      <c r="G40" s="28"/>
+      <c r="H40" s="6">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="17">
+        <v>1</v>
+      </c>
+      <c r="D41" s="18"/>
+      <c r="E41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="7">
+        <v>1</v>
+      </c>
+      <c r="G41" s="28"/>
+      <c r="H41" s="6">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="17">
+        <v>1</v>
+      </c>
+      <c r="D42" s="18"/>
+      <c r="E42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="7">
+        <v>1</v>
+      </c>
+      <c r="G42" s="28"/>
+      <c r="H42" s="6">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="17">
+        <v>1</v>
+      </c>
+      <c r="D43" s="18"/>
+      <c r="E43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="7">
+        <v>1</v>
+      </c>
+      <c r="G43" s="28"/>
+      <c r="H43" s="6">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="17">
+        <v>1</v>
+      </c>
+      <c r="D44" s="18"/>
+      <c r="E44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="7">
+        <v>1</v>
+      </c>
+      <c r="G44" s="28"/>
+      <c r="H44" s="6">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="7">
+        <v>1</v>
+      </c>
+      <c r="G45" s="28"/>
+      <c r="H45" s="6">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>1</v>
+      </c>
+      <c r="J45" s="9"/>
+    </row>
+    <row r="46" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="7">
+        <v>1</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="7">
+        <v>1</v>
+      </c>
+      <c r="G46" s="28"/>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>1</v>
+      </c>
+      <c r="J46" s="9"/>
+    </row>
+    <row r="47" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="6">
+        <v>1</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="7">
+        <v>1</v>
+      </c>
+      <c r="G47" s="28"/>
+      <c r="H47" s="6">
+        <v>0</v>
+      </c>
+      <c r="I47" s="6">
+        <v>1</v>
+      </c>
+      <c r="J47" s="9"/>
+    </row>
+    <row r="48" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="6">
+        <v>1</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="7">
+        <v>1</v>
+      </c>
+      <c r="G48" s="28"/>
+      <c r="H48" s="6">
+        <v>0</v>
+      </c>
+      <c r="I48" s="7">
+        <v>1</v>
+      </c>
+      <c r="J48" s="12"/>
+    </row>
+    <row r="49" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="7">
+        <v>2</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="7">
+        <v>1</v>
+      </c>
+      <c r="G49" s="28"/>
+      <c r="H49" s="6">
+        <v>0</v>
+      </c>
+      <c r="I49" s="6">
+        <v>1</v>
+      </c>
+      <c r="J49" s="12"/>
+    </row>
+    <row r="50" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="7">
+        <v>2</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="7">
+        <v>1</v>
+      </c>
+      <c r="G50" s="28"/>
+      <c r="H50" s="6">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>1</v>
+      </c>
+      <c r="J50" s="12"/>
+    </row>
+    <row r="51" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="7">
+        <v>2</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F37" s="7">
-        <v>1</v>
-      </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="I37" s="9"/>
-      <c r="J37" s="15"/>
-    </row>
-    <row r="38" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-    </row>
-    <row r="39" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="16"/>
-    </row>
-    <row r="40" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="16"/>
-    </row>
-    <row r="41" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="16"/>
-    </row>
-    <row r="42" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="16"/>
-    </row>
-    <row r="43" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="16"/>
+      <c r="F51" s="7">
+        <v>1</v>
+      </c>
+      <c r="G51" s="28"/>
+      <c r="H51" s="6">
+        <v>20</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="12"/>
+    </row>
+    <row r="52" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="7">
+        <v>2</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F52" s="7">
+        <v>1</v>
+      </c>
+      <c r="G52" s="28"/>
+      <c r="H52" s="6">
+        <v>20</v>
+      </c>
+      <c r="I52" s="6"/>
+      <c r="J52" s="12"/>
+    </row>
+    <row r="53" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="7">
+        <v>1</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="E53" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F53" s="7">
+        <v>1</v>
+      </c>
+      <c r="G53" s="28"/>
+      <c r="H53" s="6">
+        <v>2</v>
+      </c>
+      <c r="I53" s="9"/>
+    </row>
+    <row r="54" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="7">
+        <v>1</v>
+      </c>
+      <c r="D54" s="9"/>
+      <c r="E54" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F54" s="7">
+        <v>1</v>
+      </c>
+      <c r="G54" s="28"/>
+      <c r="H54" s="6">
+        <v>2</v>
+      </c>
+      <c r="I54" s="9"/>
+    </row>
+    <row r="55" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="20">
+        <v>2</v>
+      </c>
+      <c r="D55" s="18"/>
+      <c r="E55" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F55" s="7">
+        <v>1</v>
+      </c>
+      <c r="G55" s="28"/>
+      <c r="H55" s="19">
+        <v>2</v>
+      </c>
+      <c r="I55" s="18"/>
+    </row>
+    <row r="56" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="17">
+        <v>2</v>
+      </c>
+      <c r="D56" s="18"/>
+      <c r="E56" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56" s="7">
+        <v>1</v>
+      </c>
+      <c r="G56" s="28"/>
+      <c r="H56" s="19">
+        <v>2</v>
+      </c>
+      <c r="I56" s="18"/>
+    </row>
+    <row r="57" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="17">
+        <v>2</v>
+      </c>
+      <c r="D57" s="18"/>
+      <c r="E57" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F57" s="7">
+        <v>1</v>
+      </c>
+      <c r="G57" s="28"/>
+      <c r="H57" s="19">
+        <v>2</v>
+      </c>
+      <c r="I57" s="18"/>
+    </row>
+    <row r="58" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="17">
+        <v>2</v>
+      </c>
+      <c r="D58" s="18"/>
+      <c r="E58" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58" s="7">
+        <v>1</v>
+      </c>
+      <c r="G58" s="28"/>
+      <c r="H58" s="19">
+        <v>2</v>
+      </c>
+      <c r="I58" s="18"/>
+    </row>
+    <row r="59" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="17">
+        <v>2</v>
+      </c>
+      <c r="D59" s="18"/>
+      <c r="E59" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F59" s="7">
+        <v>1</v>
+      </c>
+      <c r="G59" s="29"/>
+      <c r="H59" s="19">
+        <v>2</v>
+      </c>
+      <c r="I59" s="18"/>
+      <c r="J59" s="12"/>
+    </row>
+    <row r="60" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="12"/>
+    </row>
+    <row r="61" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="12"/>
+    </row>
+    <row r="62" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="26"/>
+      <c r="J62" s="12"/>
+    </row>
+    <row r="63" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J63" s="9"/>
+    </row>
+    <row r="64" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J64" s="13"/>
+    </row>
+    <row r="65" spans="10:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J65" s="13"/>
+    </row>
+    <row r="66" spans="10:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J66" s="13"/>
+    </row>
+    <row r="67" spans="10:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J67" s="13"/>
+    </row>
+    <row r="68" spans="10:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J68" s="13"/>
+    </row>
+    <row r="69" spans="10:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J69" s="18"/>
+    </row>
+    <row r="70" spans="10:10" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J70" s="18"/>
+    </row>
+    <row r="71" spans="10:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J71" s="18"/>
+    </row>
+    <row r="72" spans="10:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J72" s="18"/>
+    </row>
+    <row r="73" spans="10:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J73" s="18"/>
+    </row>
+    <row r="74" spans="10:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J74" s="18"/>
+    </row>
+    <row r="75" spans="10:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J75" s="18"/>
+    </row>
+    <row r="76" spans="10:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J76" s="18"/>
+    </row>
+    <row r="77" spans="10:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J77" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="4">
+    <mergeCell ref="G26:G59"/>
+    <mergeCell ref="G60:G61"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="J2:J22"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G36:G37"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
